--- a/Doc/Questions_Journey/Questions_Journey.xlsx
+++ b/Doc/Questions_Journey/Questions_Journey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Questions_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32025FF5-F4E7-4453-835A-EE0BB2199D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB8F819-2DC8-4E75-9DD9-0B738F571F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>LowestSales</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WildcardMatching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/wildcard-matching/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +145,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,22 +185,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,10 +205,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -490,7 +504,7 @@
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -688,21 +702,941 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -714,7 +1648,10 @@
     <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{91248FDD-3F36-4DEE-8AAC-A1FA75681857}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/Questions_Journey/Questions_Journey.xlsx
+++ b/Doc/Questions_Journey/Questions_Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Questions_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB8F819-2DC8-4E75-9DD9-0B738F571F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6386DC88-B263-4319-8FFC-9684D1B76D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>LowestSales</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegularExpressionMatching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/regular-expression-matching/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,11 +210,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,53 +502,53 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="23.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>1</v>
       </c>
@@ -705,7 +713,7 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -732,14 +740,14 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -754,12 +762,22 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1650,8 +1668,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{91248FDD-3F36-4DEE-8AAC-A1FA75681857}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{42A599C5-0D5E-4656-AFAB-5BAC82764E1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Doc/Questions_Journey/Questions_Journey.xlsx
+++ b/Doc/Questions_Journey/Questions_Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Questions_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6386DC88-B263-4319-8FFC-9684D1B76D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF87091-77E8-43BB-96B0-764C665B7C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>LowestSales</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screenshot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,30 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/regular-expression-matching/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissingNumberInArithmeticProgression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/missing-number-in-arithmetic-progression/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,16 +522,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="8.6640625" style="1"/>
   </cols>
@@ -527,13 +547,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -584,14 +604,12 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -611,14 +629,12 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -638,14 +654,12 @@
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -665,14 +679,12 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -692,14 +704,12 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -714,19 +724,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -741,17 +751,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -766,17 +778,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -787,12 +801,24 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1669,8 +1695,9 @@
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{91248FDD-3F36-4DEE-8AAC-A1FA75681857}"/>
     <hyperlink ref="F11" r:id="rId2" xr:uid="{42A599C5-0D5E-4656-AFAB-5BAC82764E1E}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{9F1C5CE1-D948-40B8-82DF-5CB83CEEF2EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Doc/Questions_Journey/Questions_Journey.xlsx
+++ b/Doc/Questions_Journey/Questions_Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Questions_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF87091-77E8-43BB-96B0-764C665B7C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C008C556-8B9D-449A-A342-2AFB5F95C660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>LowestSales</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,22 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongestValidParentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-valid-parentheses/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,13 +538,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
     <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -828,12 +844,24 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1696,8 +1724,9 @@
     <hyperlink ref="F10" r:id="rId1" xr:uid="{91248FDD-3F36-4DEE-8AAC-A1FA75681857}"/>
     <hyperlink ref="F11" r:id="rId2" xr:uid="{42A599C5-0D5E-4656-AFAB-5BAC82764E1E}"/>
     <hyperlink ref="F12" r:id="rId3" xr:uid="{9F1C5CE1-D948-40B8-82DF-5CB83CEEF2EE}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{656B3792-0751-4B6F-AD5D-2F76FC895177}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Doc/Questions_Journey/Questions_Journey.xlsx
+++ b/Doc/Questions_Journey/Questions_Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Questions_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C008C556-8B9D-449A-A342-2AFB5F95C660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CB2FF-ECAB-4FAD-AF80-D98BE385F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>LowestSales</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,9 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/kill-process/</t>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/wildcard-matching/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/regular-expression-matching/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MissingNumberInArithmeticProgression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/missing-number-in-arithmetic-progression/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,11 +138,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/longest-valid-parentheses/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrappingRainWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monotone-stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -229,12 +238,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,12 +293,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,53 +599,53 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="34.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>1</v>
       </c>
@@ -614,15 +675,17 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
@@ -639,15 +702,15 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>14</v>
@@ -664,16 +727,14 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
@@ -689,16 +750,14 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -714,16 +773,14 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
@@ -739,20 +796,20 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -766,20 +823,18 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -793,16 +848,14 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -817,23 +870,21 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -844,23 +895,21 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -871,12 +920,22 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -886,12 +945,20 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -901,9 +968,9 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -916,9 +983,9 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -931,9 +998,9 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -946,9 +1013,9 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -961,9 +1028,9 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -976,9 +1043,9 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -991,9 +1058,9 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1006,9 +1073,9 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1021,9 +1088,9 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1036,9 +1103,9 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1051,9 +1118,9 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1066,9 +1133,9 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1081,9 +1148,9 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1096,9 +1163,9 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1111,9 +1178,9 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1126,9 +1193,9 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1141,9 +1208,9 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1156,9 +1223,9 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1171,9 +1238,9 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1186,9 +1253,9 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1201,9 +1268,9 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1216,9 +1283,9 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1231,9 +1298,9 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1246,9 +1313,9 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1261,9 +1328,9 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1276,9 +1343,9 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1291,9 +1358,9 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1306,9 +1373,9 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1321,9 +1388,9 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1336,9 +1403,9 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1351,9 +1418,9 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1366,9 +1433,9 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1381,9 +1448,9 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1396,9 +1463,9 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1411,9 +1478,9 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1426,9 +1493,9 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1441,9 +1508,9 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -1456,9 +1523,9 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1471,9 +1538,9 @@
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -1486,9 +1553,9 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -1501,9 +1568,9 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -1516,9 +1583,9 @@
       <c r="N56" s="3"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -1531,9 +1598,9 @@
       <c r="N57" s="3"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -1546,9 +1613,9 @@
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -1561,9 +1628,9 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -1576,9 +1643,9 @@
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -1591,9 +1658,9 @@
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -1606,9 +1673,9 @@
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -1621,9 +1688,9 @@
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -1636,9 +1703,9 @@
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -1651,9 +1718,9 @@
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -1666,9 +1733,9 @@
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -1681,9 +1748,9 @@
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -1696,9 +1763,9 @@
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -1711,22 +1778,27 @@
       <c r="N69" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C15"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{91248FDD-3F36-4DEE-8AAC-A1FA75681857}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{42A599C5-0D5E-4656-AFAB-5BAC82764E1E}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{9F1C5CE1-D948-40B8-82DF-5CB83CEEF2EE}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{656B3792-0751-4B6F-AD5D-2F76FC895177}"/>
+    <hyperlink ref="D14:D15" r:id="rId1" display="TrappingRainWater" xr:uid="{C93E5B36-3B13-4A41-BE3D-00F56D380E24}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{CBF73EF1-C328-4EAC-8454-4128299750AF}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{50929FEF-FEBE-4ECB-B0F0-786604FC69FE}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{3FA486C8-1796-4804-9362-7E1DC53EA71B}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{D2856BAA-1D6F-4E41-8E78-39282A486D17}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{9E804F2F-156E-4366-8C2A-980749FD699C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Doc/Questions_Journey/Questions_Journey.xlsx
+++ b/Doc/Questions_Journey/Questions_Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Questions_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CB2FF-ECAB-4FAD-AF80-D98BE385F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E8C4D-6160-458C-905C-D3115E88B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>LowestSales</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,22 @@
   </si>
   <si>
     <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,27 +309,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -599,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -614,38 +630,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="2">
         <v>1</v>
       </c>
@@ -675,10 +691,10 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -702,7 +718,7 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
@@ -727,7 +743,7 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +766,7 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
@@ -773,7 +789,7 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
@@ -796,10 +812,10 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -823,8 +839,8 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -848,8 +864,8 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -873,8 +889,8 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -898,8 +914,8 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -923,7 +939,7 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
@@ -948,7 +964,7 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="10"/>
       <c r="E15" s="3" t="s">
         <v>33</v>
@@ -968,12 +984,22 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1781,13 +1807,13 @@
   <mergeCells count="9">
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C15"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C9:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1797,8 +1823,9 @@
     <hyperlink ref="D11" r:id="rId4" xr:uid="{3FA486C8-1796-4804-9362-7E1DC53EA71B}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{D2856BAA-1D6F-4E41-8E78-39282A486D17}"/>
     <hyperlink ref="D9" r:id="rId6" xr:uid="{9E804F2F-156E-4366-8C2A-980749FD699C}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{4EAFE09C-D3B8-4C00-AF4C-67D46301BC0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>